--- a/Reto1/tablas.xlsx
+++ b/Reto1/tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programacion\HPC\Reto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540F706E-B5C9-4D80-BB9C-DEF45BCB371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFA4752-8BF7-40A8-8C2F-4E8252CC77BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1875" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="2130" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Secuencial</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Promedio</t>
+  </si>
+  <si>
+    <t>Speedup</t>
   </si>
 </sst>
 </file>
@@ -63,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,8 +79,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -100,11 +109,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -112,6 +158,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,6 +180,1124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Grafico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> comparativo</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3624582239720035"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.41875600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48325899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47016400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.487788</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44330799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46334199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45863199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45689200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56DA-4E7B-998F-016462A8B2CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hilos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.76360600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76488199999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72297299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77223799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75872899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74573500000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74743000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76323300000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74162700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56DA-4E7B-998F-016462A8B2CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Procesos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4549999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2669999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4120000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.552E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5410000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5579999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4469999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7129999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.586E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-56DA-4E7B-998F-016462A8B2CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1170609695"/>
+        <c:axId val="1049788943"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1170609695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1049788943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1049788943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170609695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C96DCAC-E82E-0C65-4688-45E6D8CE58B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,92 +1563,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>0.41875600000000002</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" s="3">
+        <v>0.76360600000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.4549999999999999E-3</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <f>(A2+A3+A4+A5+A6+A7+A8+A9+A10)/9</f>
+      <c r="H2" s="3">
+        <f>(B2+B3+B4+B5+B6+B7+B8+B9+B10)/9</f>
         <v>0.46008233333333337</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <f>H2/H3</f>
+        <v>0.61068795845941282</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>0.48325899999999999</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C3" s="3">
+        <v>0.76488199999999995</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.2669999999999999E-3</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="H3" s="3">
+        <f>(C2+C3+C4+C5+C6+C7+C8+C9+C10)/9</f>
+        <v>0.75338366666666656</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>H2/H4</f>
+        <v>306.0188456137758</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>0.47016400000000003</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C4" s="3">
+        <v>0.72297299999999998</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.4120000000000001E-3</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="H4" s="3">
+        <f>(D2+D3+D4+D5+D6+D7+D8+D9+D10)/9</f>
+        <v>1.5034444444444444E-3</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>0.487788</v>
       </c>
+      <c r="C5" s="3">
+        <v>0.77223799999999998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.552E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>0.44330799999999998</v>
       </c>
+      <c r="C6" s="3">
+        <v>0.75872899999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.5410000000000001E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>0.46334199999999998</v>
       </c>
+      <c r="C7" s="3">
+        <v>0.74573500000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.5579999999999999E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>0.45863199999999998</v>
       </c>
+      <c r="C8" s="3">
+        <v>0.74743000000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.4469999999999999E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>0.45860000000000001</v>
       </c>
+      <c r="C9" s="3">
+        <v>0.76323300000000005</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.7129999999999999E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>0.45689200000000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.74162700000000004</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.586E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>